--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +482,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,10 +564,13 @@
         <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -580,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://palmrest.tst.choicesaas.cn/palm-restrant/meal/checkOrder.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"tableKey":"201809295FE03E61AAF5406EB3AF101"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>c02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://palmrest.tst.choicesaas.cn/palm-restrant/meal/checkOrder1.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,7 +502,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -517,77 +517,77 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -482,7 +480,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,30 +593,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/case1.xlsx
+++ b/data/case1.xlsx
@@ -1,162 +1,463 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView windowWidth="20490" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+  <si>
+    <t>caseId</t>
+  </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyType</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>status_code</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
   <si>
     <t>error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tableKey":"201809295FE03E61AAF5406EB3AF101"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Accept-Encoding":"gzip, deflate"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bodyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_type</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
   <si>
     <t>c01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Accept-Encoding":"gzip, deflate"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://yun.choicesaas.cn/cloud/api/auth/login</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{"username": "18005410350", "password": "WK123456"}</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://palmrest.tst.choicesaas.cn/palm-restrant/c/first.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"xiabuxiabu_7131C9157F2D4FE3A59C_2_2","appid":"wx5e6c20b2d813400b","openid":"o29U5wpRQPqnQWCggpgaU5Cti_Ck"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白广路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accessToken": "accessToken\\\":\\\"(.+?)\\\",","refreshToken": "refreshToken\\\":\\\"(.+?)\\\""}</t>
+  </si>
+  <si>
+    <t>c02</t>
+  </si>
+  <si>
+    <t>http://yun.choicesaas.cn/cloud/api/auth/logout</t>
+  </si>
+  <si>
+    <t>{"accessToken":"${accessToken}","refreshToken":"${refreshToken}"}</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://palmrest.tst.choicesaas.cn/palm-restrant/meal/checkOrder1.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,23 +465,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -471,126 +1065,158 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="67.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.3833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="11" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34.1083333333333" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="74" customHeight="1" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
+    <row r="4" s="2" customFormat="1" ht="14" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="http://yun.choicesaas.cn/cloud/api/auth/logout" tooltip="http://yun.choicesaas.cn/cloud/api/auth/logout"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://yun.choicesaas.cn/cloud/api/auth/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>